--- a/commentData.xlsx
+++ b/commentData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ugw5ej-XdiFL40uu9814AaABAg</t>
+          <t>UgyX0R5Rox2oTpsavfd4AaABAg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>හැමදාම unea ඔහොම තමා</t>
+          <t>මල්ලි ඔයා හොඳයි මේ වගේ දෙවල් කතාකරන්න ඔන සමාජේ හැදෙන්න</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UCh3O7jnH1dspTmxbkW4K6yA</t>
+          <t>UCeQ-881XwSUCw7mK0mem6HQ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,44 +504,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-01-30T16:12:28Z</t>
+          <t>2021-01-29T15:10:54Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2021-01-30T16:12:28Z</t>
+          <t>2021-01-29T15:10:54Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UgyWfbG2dV7TCXe3JFR4AaABAg</t>
+          <t>UgxhbFiN29vtce4TCuZ4AaABAg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>මෙල්ගෙන් ඇහුවනම් කියයි" ෆෝම් එක වෙනයි ක්ලාස් එක වෙනයි කියල"</t>
+          <t>යකො හිතන්න එපා ඒ අම්මාත් මගේ අම්මා හා සමානයි කියලා මොඩ ගැනියක් ගුරු කමත් අත් අරවන්න තියෙන්නේ බලු ගැනි මගේ පපුව පීච්චුනා වගේ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UCG6cJF3xw23cZhjW1EcsB6Q</t>
+          <t>UCeQ-881XwSUCw7mK0mem6HQ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -549,179 +549,179 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-01-30T15:41:58Z</t>
+          <t>2021-01-29T15:10:02Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2021-01-30T15:41:58Z</t>
+          <t>2021-01-29T15:10:02Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UgxgZPVRvPhTX_SyDEx4AaABAg</t>
+          <t>Ugwqe3a_5yv7eIlRHIF4AaABAg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ලහිරු inn ඕනේ</t>
+          <t>ලංකාවෙ සමහර ගැනුන්ට  පිස්සු   අපිට ත්   ලැජ්ජයි.....🤔🤔🤔</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UCAFA18g_LE_Viv1C4CI61KA</t>
+          <t>UCP_f5da8z6AYX_ZMBk31XCw</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-01-30T03:14:13Z</t>
+          <t>2021-01-28T18:54:03Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2021-01-30T03:14:13Z</t>
+          <t>2021-01-28T18:54:03Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UgxOgXYt6GoirFJvpul4AaABAg</t>
+          <t>UgxDdzTmp0IyXr_qh694AaABAg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>මුන්ට අවස්ත දුන්නට ප්‍රෙරෙයෝජන ගන් නැහැ එකනේ වැඩේ අන්තිම එකට ගත්ත එක දැක්කනේ ඉනින් දේකේම කරපු දේ වේන රටවල නවකයින් ටිම් එකට අවම අඩුම පනහක් හරි ගහනවා මුන් සින්ගල් එක ගහන්න බැ</t>
+          <t>ඔයාට video දෙන්න කොහොමද අපි දෙන්නේ අපිට උදව් කරන්න අපි ගාව video එකක් තියෙනවා ඔයාට දෙන විදිහ අපිට කියන්න</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UC3aUVW3WzqxeyOAHKFOJzkA</t>
+          <t>UCQKGlpQT3k-ojRs3DWJIcXw</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-01-30T03:12:52Z</t>
+          <t>2021-01-28T10:47:36Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2021-01-30T03:12:52Z</t>
+          <t>2021-01-28T10:47:36Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UgygStvsNQ5sAtviBnl4AaABAg</t>
+          <t>Ugz6Co296p5awr0XgHF4AaABAg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>අර්ජුන කීවෙ හොඳම 11 නෙමෙ, ගහන්නේ කියලා තව මොනාද</t>
+          <t>ඒ පුතා හොද නමි පූතා වදපු හදපු අමිමා ට  මෙකි කරල තියන දේ ඉගන ගත්තු උන් කරන වැඩද මෙවුවා</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UCnbEy1mxIKsaoHk8WqrXRgw</t>
+          <t>UClQa5LH2tPQTj9_VP78aXEg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-01-29T18:07:51Z</t>
+          <t>2021-01-28T08:53:50Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2021-01-29T18:07:51Z</t>
+          <t>2021-01-28T08:53:50Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UgwHcoXISDUtdf8b7YR4AaABAg</t>
+          <t>UgxIggJs4bO4eQgJgEh4AaABAg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>වැඩක් නෑ කොච්චර වැඩ්ඩෙක් වුනත් ඇට අතගාන්න දන්නෙ නැතිලු</t>
+          <t>මෙකිගෙ ජොබ් එකෙන් අයින් කරන්න ඔනෙ,, සක්කිලි වෙසි ,, දඩුවම මොනද දන්නෙ දුන්නෙ ,,,  පර වෙසි,, පව් එ අම්මා ගොඩාක් දුකයි</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UC6phRuKI4W8bSsQ3SuAsIIA</t>
+          <t>UCoqp-JGnFd2mnvWN1iuR23w</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -729,137 +729,134 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-01-29T16:40:15Z</t>
+          <t>2021-01-27T19:58:20Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2021-01-29T16:40:15Z</t>
+          <t>2021-01-27T19:58:20Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ugy41He-E7NJsT2dfDl4AaABAg</t>
+          <t>UgzYmj0OcHKx2NMB3Pt4AaABAg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>මෙන්ඩා මේ කාලේ දක්ශතා අතර නැති උනාට පොර form 1 ඉන්න කොට score board presure 1 අඩු වෙන්නෙ පට පට ගාලා..... ඒ හින්දා මෙන්ඩා ආයේ track 1ට දාගන්න ඕන......
-එතකං teem 1න් කපලා වෙන කෙනෙක්ට chance 1 දීලා, මෙන්ඩව වෙනම අරගෙන out වෙන්න හේතුව හොයලා, ඒක හදලා ආයේ chance 1 ක් දීලා බලන්න ඕන......
-මෙන්ඩා අපේ මයියා ගානට ගේන්න පුලුවං චරිතයක්........
-ඇයි මේක පාලකයොන්ට, Couch ට එහෙම තේරෙන්නැත්තේ??????</t>
+          <t>ඒලියට ආවනම් තව සතියකින් ඔක අමතකයි ඔය දැකපු දවස ඔයිට  පෙර මොනවිදියට පුරන් කොටන්න ඇද්ද නොදකින්</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+          <t>UCBbgk59S_hKLO0PH8UIVVwA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-01-29T15:23:43Z</t>
+          <t>2021-01-27T19:46:35Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2021-01-29T15:25:39Z</t>
+          <t>2021-01-27T19:46:35Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UgzqOzLn0X3M6LT2tkx4AaABAg</t>
+          <t>Ugy5eGop7D2Wbu3bNlp4AaABAg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>මේමයි..... වැඩ්ඩෙක් නං chance අනිවා දෙන්න ඕන.... දක්ශතා අතර ඉන්න වෙලාවේ chance නොදී නං වැඩක් නෑ.......</t>
+          <t>මේකි  ලමයින්න කෝචර ගහනවා අැතිද   ඔකිට   රස්සව දේන්න එපා</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+          <t>UC9_xs0dJkiCm52rEiOHWd1Q</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-01-29T15:20:10Z</t>
+          <t>2021-01-27T19:03:04Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2021-01-29T15:20:10Z</t>
+          <t>2021-01-27T19:03:04Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ugx5fu2yEbF7Uth9Hsl4AaABAg</t>
+          <t>UgxytJJR4RoudgUFK5F4AaABAg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ක්‍රිකට් ක්‍රීඩාව ආරක්ෂා කරන්න හරි ක්‍රීඩකයන්ව තරග සඳහා සහභාගී කරවීමේ අරමුණින් තමයි මොවුන්ව මේ ආකාරයෙන් නොසලකා හරින්නේ.</t>
+          <t>දැන් රන්ඩු වෙන වෙලාවෙි කවුද ⁣විඩියො කරේ...</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UCx3W86QCpSsPtwVAcI0vGcA</t>
+          <t>UC9RTzTsNp2e--BnXf3wm_uQ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -867,102 +864,8949 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-01-29T15:03:03Z</t>
+          <t>2021-01-27T13:27:29Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2021-01-29T15:03:03Z</t>
+          <t>2021-01-27T13:27:29Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ugzu9cCzhlcrvobfVXV4AaABAg</t>
+          <t>UgxvFd_XMiO4sNJGech4AaABAg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ඒක නං ඇත්ත වෙනදටත් සෙල්ලම් කරන කට්ටිය එළිය ඉන්නවා කියලා අපිටත් තේරෙනවා ඒත් මට හිතාගන්න බැරි</t>
+          <t xml:space="preserve">මොන මගුලක් උනත් ගම්පොල නම ගෑවෙනවාමයි සැක් </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UCATvMHO5EQ7LJozgrR4RYmQ</t>
+          <t>UCbj6UkyNRC0atcea-ngCgGg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:53:41Z</t>
+          <t>2021-01-27T07:49:56Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:53:41Z</t>
+          <t>2021-01-27T07:49:56Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>2Mth_IJevas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2021-01-19T00:30:25Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ugz_wx-oufFe_q9-Wfh4AaABAg</t>
+          <t>Ugx3fo71jpjuL0yddVR4AaABAg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ආදරෙයි  චැනල් එක⁣ට</t>
+          <t xml:space="preserve">මල්ලි අහිංසක පොඩ් ගෑනු දරුවෝ දූෂණය නතර කරන්න බලන්න  අහිංසක දරුවෝ දෙමාපියන් pau thanks මල්ලි  තෙරුවන් සරණයි  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>UCHGhUmNcgw_5wF85ZiaGfsg</t>
+          <t>UCKJos7qvcpfKF0mwiYE5Xdw</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-01-29T14:35:51Z</t>
+          <t>2021-01-27T06:16:40Z</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2021-01-29T14:35:51Z</t>
+          <t>2021-01-27T06:16:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UgynEDjxPIhjeamgf0l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>පාාහර ස්ක්කලි වේසි තොගේ කෙරුවාවල් රටට පෙන්න්න ඔිනැ එල්ලලා ගහන්න ඕනැ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UCHTED2uNAqlq0mtindH-Iaw</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2021-01-27T01:07:30Z</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2021-01-27T01:07:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UgxLulIhDEEyA39ReFN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ගුරුවරියක් කියන්නත් ලජ්ජයි මේකිට....ගුරු සේවයෙනුත් අයින් කරන්න තියෙන්නේ ඔය ගැනීව......</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UCPb3oHWmnBG51aP-uJOfV2A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2021-01-26T19:59:06Z</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2021-01-26T19:59:06Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>UgzT1DhTJBzHILbhHC94AaABAg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>මේ වගේ ගැනුන්ට නිසි දඩුවම්  දෙන්න</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UCavHuTUbaw4z5Kzef_s3MSw</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-01-26T17:15:11Z</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2021-01-26T17:15:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UgxabvJjSiJhoKZOa1l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>යකො මේ වගෙ ගැනුන්ව කැලි කැලි කපලා දාන්න ඔනේ මුහුදට.එල්ලලා ගල් ගහන්න ඕනේ.පර බැල්ලියො.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UCSO24Ju5tqbTaw6M70pxMpQ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-01-26T14:26:55Z</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2021-01-26T14:26:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UgyaQPB05i7f6rdgFUN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>අම්මගෙ වටිනා කම 5000 ද..🤔🤔</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UC-Yljh159iKf5yuqclukuTw</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021-01-26T13:58:55Z</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2021-01-26T13:58:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ugzs3PZlcXnv06NBqB54AaABAg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ලේලි,, නැන්දම්මාට නම් ගැහුවේ ..කො යකො මෙ අම්මගෙ පුතා..🤔🤔 ..ඌට බැරීද මේකිගෙ අඩු කඩන්න...</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UC-Yljh159iKf5yuqclukuTw</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2021-01-26T13:56:05Z</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2021-01-26T13:56:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ugwo8rHRGGCnJUlea2d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>පොන්නයෝ මේ ටික කියන්නද තෝ තෙපරබැවේ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UCOTzUCc3eKze4cEJ_3-SOcQ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021-01-26T12:29:15Z</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2021-01-26T12:29:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ugw_AYpR5ZEC-xbA-8l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>මගේ  මතයනම්  mee    ජරා  ගුරුත්මියව iedikatu  කකුල්  දෙකට  aenala  බාල්කෙ  aellala  ගහන්න  oeene. කිසිම  thenaka rekiyawak  දෙන්න  aepa.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UCkOjjw6ZRueG8eFuz1fPcng</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2021-01-26T11:23:30Z</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2021-01-26T11:23:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UgywItr5n6Zn-BvSKJJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">අම්මෝ මෙහෙම ගුරුවරු.ලැජ්ජයි ඉතින්..ඒ ගෑනිටත් තමන්ගෙ ලමයිගෙන් කවදාහරි වෙන්නෙත් ඔය දේම තමයි..අපි අපේ දෙමව්පියන්ට පනටත් වඩා ආදරේ කරනවා..මේ ගෑනි ආනන්තර්‍ය පාප කර්ම කරගත්තා..පව් ඒ අම්මා.ඇස් වලට කදුලු එනවා.මොන හිතකින් මෙහෙම කරනවද දන්නෙ නෑ.නීතිය අකුරටම කරන්න ඕනි මේ වගේ මිනිස්සුන්ට විරුද්ධව </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UCi9kR79XQNsxNu4GFjYZryg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2021-01-26T03:29:07Z</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2021-01-26T03:30:50Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ugxrq4VnB4LUx2nsu2l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>අයියේ ඔය වගේම සිද්ධියක මේකත්..අපේ ඉස්කෝලේ Principaluth ඔය වගේම තමා...අම්මට කන්න බොන්නවත් දෙන්නේ නෑ..ගමේ මිනිස්සු දන්නවා ඔක්කොම... 0764881820 me number ekata msg ekak danna whatsapp hari..කතා කරන්න පුලුවන් කෙනෙක්ට මේ ගැන විස්තර දෙන්නම්..</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>UC4wbOKR42RTZJulzBzia4Ng</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2021-01-25T19:25:42Z</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2021-01-25T19:25:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>UgxSj19DBmql5IA1ILF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>අනිවාර්යයෙන් ඔකුන්ගේ ඇත්ත පෙන්නන්න ඔන මචන්.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UCon86vPHWgYrTgb2l1Dft7A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2021-01-25T16:57:26Z</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2021-01-25T16:57:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UgzJwo9Vx7NFJPzu6J54AaABAg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>නියමයි සහෝදරයා ..  කොහොම උනත් උබලා ත් පරෙස්සමින් ඉදපන් මොකද මේක ල0කාව නිසා. ජයවේවා සහෝදරයා</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>UCNGGnPd8NLCxYov4PFcJ1JA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2021-01-25T11:26:51Z</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2021-01-25T11:26:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UgyYM-c53xyZWh2LnE54AaABAg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>මන් කාගෙවත් පැත්තට කතා කරනවා නෙවෙයි . එත් ඔයාලා කවුරුත් නොදන්න ජිවිත තියෙනවා . ලේලිට ජාරා විදිහට සලකන නැන්දම්මලා ඉන්නවා . පුතා එක්ක ලේලි හොදින් ඉන්නවා දකින්න අකමැති නැන්දම්මලා ඉන්නවා . ඒත් ගහන්න හොඳ නෑ.  හොදට හොයලා බලන්න ඔනේ කවුද වැරදි කියලා .</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UC0liDrAJgZScElujgHjaZ6A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2021-01-25T03:30:48Z</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2021-01-25T03:30:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>UgzLbr1VNfbKsrYXXUZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ෙටා්ක්  විත්..ෙප්සිත</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UCG1b8Gu7wUTohXeHu_TPtuw</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2021-01-24T18:35:01Z</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2021-01-24T18:35:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UgyTP7OZ_fpujx3D3H94AaABAg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>අපි නොදනුවත්ව තව කොච්චර අැත්ද නැන්දාමටත් එකයි අම්මත් එකයි කියලා හිතන්න ඔන.දරැවෝ.උගත් කමක් නැහැ ගුරැවරියක්උනාට</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UC6lcu--jDw1X-7Z5L9oU40A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2021-01-24T16:31:31Z</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2021-01-24T16:31:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UgyEmqwAOhe_F9DfsGF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mee wagee jaraagaanunta පුළුවන්ද  යහපත් සමාජයක්  බිහි karanna අනිවාර්යයෙන්ම  සේවයෙන්  පහ කළයුතුයි  mee gaaniwa</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UCjliQDMP7s3DLaijz0nvuMg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2021-01-24T14:49:40Z</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2021-01-24T14:49:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UgyrLkrz6cJ-uaJNgql4AaABAg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>මේ කරනදේ හොදයි ලැජ්ජාවට හරි මේ වගේ වැඩ නොකර ඉදීවි.මුන් ගුරුවරුද.මොනවද මුන්ගෙන් ඉගෙන ගන්නෙ ලමයි.හොද වැඩක් මල්ලි මෙ කරන වැඩේ රටට සේවයක් උබ කරන්නෙ ජය වේවා.පරිස්සමින් වැඩ කරගන්න බුදු සරණයි</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UC13OVAUwif1Gx5GQDr1BZtw</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2021-01-24T13:53:14Z</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2021-01-24T13:53:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UgzbuGS4DThICX7qcGp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ෂා මරුනෙ දැන් කොල්ලගෙ review. පලවෙනි විනාඩි 5 විතරයි බැලුවේ.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UC2pw3R2_uld2F1NSe8yYtIA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2021-01-23T20:08:48Z</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2021-01-23T20:08:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UgzTeNBszUYqQ9eMgzV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>මානසික ආතතිය පිටවන විදිහ...මට හිතෙන විදිහට ඇය සිය පවුල් ජීවිතය තුල දරන්න බැරි තරම් වෙහෙසක් පීඩනයක් සහ ස්වාමිය සමග  ආසරණීය බැඳීමක් අහිවීම තුල ඇය යකින්නක්  වෙලා....මානසිකව සියල්ල දරාගෙන පිටවෙන තැනදි  පිට කරනව....මම මේ  මෙි ගුරුවරියගෙ පැත්ත ගන්නව නෙවෙයි නමුත් ගැහැණියක්  වේවා දරුවෙක් හෝ  පිරිමියෙක්  යම්  වේදනාවක් කලකිරීමක්  තනියම දරා ගත් තැනදි  මනසින් වැටෙනව එවිට  ඔවුන්  ඔවුන්ව  පාලනය කරන්න බැරි තැනකට පත්  වෙනව...මෙතනදි  නැන්දම්ම  පවා  එල්ලි  එල්ලි  යන හැටි  ඇයව  මග හැර  යම් කාරණයකදි   එයට සම්භන්ද සියල්ලන්ම  තේරුම්ගත යුතුයි ..නිහඬවන තැනදි නිහඩ විය  යුතුයි ....නොතේරුම් ගැනීම තමයි  මෙවන්  ප්‍රශ්ණ වලට මුල...අාදරය නොලැබීම සහ ඇයට හෝ ඔහුට හිමි තැන නොලැබුනහම  ⁣මෙවන් තන්වයන්ට  පත්  වෙනව...ඇයව ටෙවද්‍යවරයෙක් කරා  යොමුකර  නිසි උපදෙස් දිය යුතුයි...</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UCs_HZLuFxKuaVWTyWgexMhA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2021-01-23T18:13:31Z</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2021-01-23T18:13:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UgzTMk-0UWPFlfR7rEF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ලැජ්ජ නැතිව කියනවා පොලිස් පතිතුමාට කියනවා ටිවිඑකට දාන්න එපා කියලා  එහෙනම් එ්දේ නොකර ඉන්න එපැ කිසිම සමාවක් දෙන්න එපා</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>UCm8mEQMk8xs9r7bQnYLp5NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2021-01-23T17:05:04Z</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2021-01-23T17:05:04Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UgxZ0frx84mL4MhHkSN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>හොඳ  වැඩේ වේසිට. .</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UCT8a1rYpynISbrR4TXyQ1qA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2021-01-23T15:48:52Z</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2021-01-23T15:48:52Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UgxCvhZ6lT0CuAhx-954AaABAg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>මේ ගුරුවරිය  මානසික රෝගියෙක්ද ?</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>UCB5dG6mhfg1B9AHY5BLy5Sw</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2021-01-23T14:50:16Z</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2021-01-23T14:50:16Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>UgxwisZL6z_kDBzell94AaABAg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ලැජ්ජයි උගත් කම තිබ්බ ට වැඩක් නැහැ ගෑනියෙක් වෙලා හැදියාව නැති නම් ...</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UCbG-Xmz_3KmJcYhxcuMirOg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2021-01-23T14:18:59Z</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2021-01-23T14:18:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UgwJYtek0BFrhdYTYf94AaABAg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    අනේ පවු එඅමිමාට බුදුසරණයි     අපේ   නැන්දමිමාට   අපි   සලක්න්නේ  අපේ   අමිමාට   වගේ   කිසිම කරදරයක්   කන්නේනැ   ඔබතුමාට ගෝඩක් යිස්තුතියි   මෙවා  අපේ  සාමාජයට   දැනුවත් කරාට</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UC-MKbP6O1tPWyBa1-x7i-yw</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2021-01-23T10:15:42Z</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2021-01-23T10:15:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>UgzDjrVdnCUyYN8omN14AaABAg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">කෙලින් කතා කරන අයියා කෙනෙක් නියමයි අයියෙ </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UCv03KnYU9RSIVFCABEIkIiQ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2021-01-23T08:58:03Z</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2021-01-23T08:58:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>UgxPQ-Cryuum_W4MKbh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>සමහරවිට එ අම්මගෙත් වැරදි ඇති ඒත් තමන්ගෙ ස්වාමියාගෙ අම්මට එහෙම සලකන එක අනුමත කරන්න බෑ grate job aiya</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UChH_84JD_RyJkpr8WRd77bA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2021-01-23T06:14:47Z</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2021-01-23T06:14:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>UgzulTKh76gObD3TeNh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>මොනවා උගන්නනවාද දන්නෙනැ ඉස්කොලෙ ලමයින්ට. 🤧</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UCsl2IoESlf-ZkTLawn-kHow</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2021-01-22T21:38:25Z</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2021-01-22T21:38:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>UgzNRVc4xEHIRouyKPV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>සමාජය හරි මගට ගන්නට ඔබ ගන්නා වැයම අගය කරනවා හේෂිත මල්ලී..</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UCMd2_B1vwkB2wLtCZ7afxOA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2021-01-22T18:19:27Z</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2021-01-22T18:19:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>UgxknQ2MkO_VaKrPBuJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>මෙයා බේරෙන්න ඉඩ තියන්න එපා. අඩුගානේ අවුරුද්දකටවත් හිරකරලා තියන්න . දරුවන්ට හොද  නරක කොහොමද මේ වගේ අය කියල දෙන්නේ.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UCqZDvdJqXL10aQEzAgMIMaw</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2021-01-22T17:45:46Z</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2021-01-22T17:45:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UgyOyIzHpHwdKa68K954AaABAg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>මේ මොන පට්ට...... ද?</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UCrBrn1EKaIBlToTrQm_GyJw</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2021-01-22T16:36:57Z</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2021-01-22T16:36:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ugyz0-QSO3VfAkwQeRN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>මෙකෙ මට  නොතෙරෙන දෙ තමයි  මෙ චැනල්වල  මෙවා දන එවුන් බලපොරොත්තු වෙන්නෙ  මොනවද කියලා  මොකද  මුන්ගෙ මුලික බලපොරොත්තු  සල්ලි  හම්බ කරන එක මෙක ගැන  කතාකරා කියලා  ව්ස්තර හොයාගත්තා කියලා  වැඩක්  නැහැ  වගෙම  මෙ වගෙ ගොං හරක් නිසා හැදෙන් කෙනෙකුට  හැදෙන්න ඉඩක් නැහැ මිනිස්සු  වැරදි කරනවා නිවරදි කරගන්නවා හැබැයි  හංවඩු ගහන්න  ඔනෙ නැහැ  කවුරුත්  හොදට  මතක තියාගන්න  පොඩ්  පොඩ්  දෙවල්  අල්ලගෙන මෙවාගෙ  මිනිස්සු  නස්ති  කරන්නෙ අනුන්ගෙ කලය තව කෙනෙක් ගෙ ජිවත මම  එ කෙනා කරපු දෙ අනුමත කරන්නෙ  නැහැ  එහෙමයි  කියලා  හංවඩු ගහන්න ඔනෙ නැහැ  අද පොඩ් එකෙකුට දඩුවමක් කරත්  එවා video  කරලා දනවා අනික  අම්මා  කෙනෙක්  තමන්ගෙ දරුවො මොන දෙ කරත් එවා ප්‍රසිද්ධ  කරලා ළමයින්ට  අගවුරව වෙනවට කැමති  නැහැ   එ අම්මා  මෙක දැක්කනම් ගැහුවට වඩා දුක්  වෙනවා ඇති   දැන්  මෙකෙන් එ අම්මාට සදාරනයක් වෙනවද් නැහැ  මුං මෙවාගෙන් හම්බ කරගන්නවා ව්තරයි</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UCNhvhA8gJ86YkpmPWwfrTTA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:27:33Z</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:27:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UgzG8wxG2TdgJ612__R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ඔකි. ටචකෙනෙක්. නෙමෙයි. යස්සනියක්. ඔන්න. ඔය වගේ. උන්වයි. හිරේ. දාන්න. ඕනේ. කාලකන්නි. ගෑනී. අර. අමිමාපවු. මැරුනනමි. එහෙම</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UCozuDglDVWJ8t7NyXuAvtBQ</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:09:06Z</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:09:06Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UgzOp42yKKqR9KVhMvN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>දරුවන්ට ආදර්ශයක්  නොවන ගුරු වරුන්  කුමකට ද</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UCS04jHcQ_bUGoxjMpLOtWRw</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:03:40Z</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:03:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UgxHPSmw8daJYrThx-l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>අනිවාර්යයෙන් සහෝදරයා කියන දේ ඇත්ත</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UCTCt49mav8g-JRVd48oOdFQ</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:02:10Z</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2021-01-22T15:02:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ugwr9zBGCOzq5cVOsjV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>හොඳ වැඩේ එන්නදෙන්නනැතිවහිරගෙදරමතියන්නරස්සාවදෙන්නහොදනැහැලමයිටවුගන්නනෙකොමදලමයින්ටත්ගහයිනෙමැරිලයන්න</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UCinLzwGYTmKPs-JJOu1BkYw</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2021-01-22T14:30:13Z</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2021-01-22T14:30:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ugyvua9dYbp0ZfQxAXh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ane manda මොනවා kiyannada කියලා..e අම්මාට කරපු de කවදා හැරී e genu kenatath aniwarenma ලැබෙනවා..මොකද e malkanthita ඉන්නෙත් පිරිමි ළමයි දෙන්නෙක්  e දෙන්නත් කවදා හැරී මල්කාන්තිට ලේලිලා දෙන්නෙක්  ගෙනාවා..eyage පුතාලා දෙන්න..</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UCyQIZ0d8YrboJkcO41Y3mCw</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2021-01-22T12:44:43Z</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2021-01-22T12:44:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UgwudHWsInyxCuQvGll4AaABAg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>මේ දේ වෙලා තියෙන උන් කෝ...
+දැවෙන ප්‍රශ්නය...ඇවිත් බලලා වෙලා තියෙනවනම් සබ්ස්ක්‍රයිබ් කරල ලයික් කරන්න.
+https://www.youtube.com/channel/UCS-lXlJZ_EY3mW05yKJ2btA?sub_confirmation=1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UCS-lXlJZ_EY3mW05yKJ2btA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2021-01-22T06:40:12Z</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2021-01-22T06:40:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UgxHXGC6BGCDcTja6aB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Anee paw....අපිත්  දැක්කා  ඔයාට  ගොඩක් ස්තුතිය ...</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UCGFyPtYZe0a1-E7MZ4Vzjbw</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2021-01-22T04:05:05Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2021-01-22T04:05:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ugwu2nkdz6hS9Eq0nfp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ඒ  උනාට  ඒඅම්ම නේද  එල්ලි එල්ලි  රංඩුවට යන බව පේන්නෙ</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UCdamY9RPO88zShcdu4VVh3A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2021-01-21T21:15:39Z</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2021-01-21T21:15:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>UgyAa8pTUq_pZh0ONVx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ඕකිටත් අම්මෙක් ඉන්නවා නේ ඒකි හිතන්න ඕන</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UCI3rJ5xNyex2jiLhWL6t4pQ</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:58:43Z</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:58:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ugz5f22vOY26n7xGF1F4AaABAg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>පර බැල්ලි හෙණ ගහපන් ඕකිට.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UCI3rJ5xNyex2jiLhWL6t4pQ</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:50:52Z</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:50:52Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UgzhWw98b_i6U3JZxyx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ඇත්ත   මල්ලියේ   ඔයාගෙ   කථාව    ගුරැවරියෙක්    කියන්නෙ     අනාගත  පරපුර ට  හොද  ගතිගුණ    උගැන්වීමයි....දැන්    ලමයි    වැඩිහිටියන් ට   ගරැ  කරන්න    දන්නෙ   නෑ ...ඒකයි    සමාජයේ   ඔවැනි   දේවල්   ඇති  වෙන්නෙ .....</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UCt02OJPHhU_JzBQbVl0C71w</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:08:27Z</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:08:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ugwzqd4xYxqXPB_pk594AaABAg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>හොද වැඩේ මේකි අහිංසක දරුවන්ට කොහොම සලකයිද සේවය අහෝසි කරන්න ඕනෙ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UCLCaTQ-YZpHsat5fKuN2Q-w</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:07:59Z</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2021-01-21T20:07:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ugyc38jU3JNDv9gZn4F4AaABAg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>අම්මා ඔයාට  බුදු  සරණයි</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>UCPNCC5j8xz2ME-fe5GN7yCQ</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:58:54Z</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:58:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ugx_m61zbUwaWmaGvFR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>මෙවැනි දෑ මාධ්‍යය ඉදිරියට ගෙනෙන ඔබට බෙහෙවින් ස්තුතියි .ලෝකයක් දනි.video කරපු කෙනාට පලමුව ස්තුතිය</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UCwUZPPTaJUa-g8aRtulCWeg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:42:20Z</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:42:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ugy6c4VBFu1_jyP2VqV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>හරිම කනගාටුයි .</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UCUhTcHx4OFEPE_LWPAZ_yJQ</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:38:10Z</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2021-01-21T16:38:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>UgwMkzjNNco2uWMt1kt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මෙිවන්  ගුරුවරියක්  පාසලේ  ළාමුන්ට  සෙනෙහස  තිබෙියිද  ගුරු කමටත්  ලැජ්වවක්  අමිමා  නැන්දාාමිමා කියා වෙිනසාක්  නැ  අමිමා  මොකද නැන්දාාමිමා .මොකද  කාලකාන්නි .ලෙලිලා  තුප්  විතරක්  </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UCjEz50lE0TRRLh4nkQ8lqhw</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:31:53Z</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:31:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>UgxQJ6CiifzP9cLza3J4AaABAg</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>කියන එක ඇහෙන්නෙ හරියට නෑ....</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UCCBsze7EoBl0_LVcL6nT7vA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:24:08Z</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:24:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>UgzhRGMkuQ6o1pCszZV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>මිනිසුන් යක්කු වෙලා අප්පා මොනව වේගෙන එනවද මන්ද ලෝකෙට</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UC67zNwHhQMR_Oy1sXnF0Crg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:00:24Z</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2021-01-21T15:00:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>UgwgdIGRGPUOP-yerW54AaABAg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>මිනියක් මැරෙන්න ඉස්සර මෙහෙම එලියට ආපු එක හොඳයි මෙ ප්‍රශ්නෙ මෙ විදිහට</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UCd7tCz0vH9vcC64nKZQYwgA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2021-01-21T14:40:15Z</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2021-01-21T14:40:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>UgzmpgiRXF4EY00L7bt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>අනේ දෙවිනේ කන කැමටද මෙහෙම කරෙ අම්ම මොකද නැන්දම්මා මොකද උගත් කම මොකටද ඔය ගුරුවරියගෙ ළමයින්ට කොහොම උගන්වනවද දන්නැ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UC_-fy59rSw-UCGs5x8Pf2nw</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2021-01-21T14:32:20Z</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2021-01-21T14:32:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>UgwqlxmgN44MzMQW4iF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>මන්නම් කවදාවත් මගෙ අම්මටවත්. කව්දහරි  බදින කෙනෙක්ගෙඅම්මට ඒ කියන්නෙ නැන්දම්මටවත් හිත රිදෙන්නවත් වචනයක් කියන්නෙ නෑ.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UCRG5yYjA8ig9lo-R1sbtlkA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>11</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:54:52Z</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:54:52Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>UgwetbjKmrRu7qVLfCt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>T v එකේ  නෙවෙයි දාන්න ඕනේ හිරේ. මහා ලොකු ගුරුවරු  කොහොමද මුන් දරුවන්ට අවවාද උපදෙස් දෙන්නේ . මුන් මෙහෙම කරද්දී</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UCoFxg-sXCuXfE8umgtAo9lQ</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:37:12Z</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:37:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ugy10nWsSA9lgiOyasR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ඔයාට ගොඩාක් ස්තුති මල්ලි</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UCZpj_A-gYdL9mMoZhsAInJQ</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:31:53Z</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2021-01-21T13:31:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ugx8f-LpV23U9LQ-bE54AaABAg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>හෙශිත මහත්මයව සම්බන්ද කරගන්නෙ කොහොමද .</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UCwEKLtjJ3LlKzTFtTaMHLug</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2021-01-21T10:35:18Z</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2021-01-21T10:35:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>UgwSRe01A_lLLKTevHx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>තමන්ගෙ ළමයින්ගෙනුත් කයි ඒ වගේම කවද හරි.ළමයි ඉස්සරහම ආදර්ශය දෙනවා අම්මා</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UCZZ1raJcxPmTeKeU8PYaGHg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2021-01-21T09:13:47Z</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2021-01-21T09:18:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ugw2_dMBgGCyJ6Lwiv54AaABAg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>මච්ං හේසිත මේවා දානෙක නොවෙයි වැඩේ ,අර අම්මට ගහන නපුන්සක බැල්ලිගෙ අත් කඩපියවු දෙවියන් සර්ව සාදාරනනම් මල්කාන්ති කියන බැල්ලිගෙ ගුරු වුර්තියත් තහනම් කරන්නඕන</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UCafXghQyqOic1iq2nZUtMxw</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2021-01-21T07:28:51Z</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2021-01-21T07:28:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>UgwjVsKFBrtPFUur69Z4AaABAg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>දිට්ඨ ධම්ම වේදනීය කර්මය පඩිසන් දේවි</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UCXoWEPOA-1MQq-wkd5MXWbA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2021-01-21T04:45:56Z</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2021-01-21T04:45:56Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>UgxmuQdsmUDsJWHF40V4AaABAg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>හ්ම්ම්.. මාත් මේ ව්ඩියෝ දෙකම බැලුවා මෙතෙන්දි පුල පුලා කියන්නේ යේලිගෙ වැරද්ද .. සමහර  ව්ට මේ යෙලි වැරදි ඇති, නමුත් පිහියනම් අරන් තියෙන්නෙ එය එකෙන් ගහන්නවත් කොටන්නවත් නෙමෙ නෙද එ අවස්තවෙ එ ලෙඩි පිහියෙන් වැඩක් කර කර ඉදලා තියෙනවා වගේ නෙද අ . එ කොහොම උනත් මන් කියන්න හදන්නෙ නැන්දම්මා  අවුරුදු   70 නෙමේ 100 ක් උනත්  එයත් එල්ලි එල්ලි එන ව්දිහ  බලන්නකො ඒක මට ව්තරමද  පෙනුනේ මොකද .. මාත් ඒ වගේ ම නැන්දම්මා ගෙන් හරියට  පීඩා විදපු  අයෙක් ඒ නිසා එක පත්තක් බලල හන්වඩු ගහන්න එපා .ටිකක් හොයලා බලන්න .</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UCk0ry7JVnKwlkfKy_9SmNRw</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2021-01-21T04:23:46Z</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2021-01-21T04:23:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UgxrcH1cUKSVTfTDAAp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>මේකි ලමයින්ට කොහොම ඉස්කෝලේදී සලකනවද දන්නෑ ඒ ගැනත් සොයාබලන්න ලමයිගෙනුත් අහන්න</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UC5dy5Nsw3o8qsmL9TU5B_Mw</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:58:19Z</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:58:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>UgzQc3UU2xVPqWSY9P94AaABAg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>මොන බැල්ලියෙක්ද මෙ</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UC7MXgDYmoFnw2H0ECreT9cQ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:33:35Z</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:33:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UgyQsVAxBiS9UTdddvt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>මනු  ස.   යෙකු.    කල වැරද්දකට ලේලිලාටයි, ඇයගෙ ජාතියට යි, භාෂාවටයි ආගමයි වෘත්තීයටයි නිග්‍රහ වන ලෙසට දොස් කීම සාධාරණද? මෙය අසාධාරණ නම් ඇයි සුළු ජාතීන් නියොජනය වන ඇයට ඒ වා ඇදභාමින් නිග්‍රහ කරන්නෙ දැන් වත් දැන ගන්න වැරදි වලට ඒවා අදාල නැති බව.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UCqOaxj3GtZwOWJ3pcMfnFxQ</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:31:38Z</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2021-01-21T01:31:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UgzkAFBUWy1ZQsi4Bj94AaABAg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මල්ලි ඔබට  </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UCOJXpO2aPW41rBHUfF-CDqw</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2021-01-20T21:11:33Z</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2021-01-20T21:11:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UgzMe1at2JmIYqAehDR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ඔකි මරපියවු  බැල් ලී</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UC5upy6q4vEHbjfEEaTIU9Jw</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2021-01-20T18:51:03Z</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2021-01-20T18:51:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ugym2e-tYv0OoqtRx5p4AaABAg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ඔය  ගැනිගෙ  අත  කැඩෙන්න  ඔනේ    පටිට  බැල්ලි</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UCdLyaQP45Am5BygYZ-Zr3vQ</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2021-01-20T17:21:24Z</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2021-01-20T17:21:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>UgwIHb3B30uxDzybcJ94AaABAg</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>නැන්දම්මා වුනත් සැමියාගේ අම්මා අම්මාගේ බඩගින්නට මෙහෙම දෙයක් වුණාම පාසලේ ළමයි අම්මලා ගොඩකි ළමයින්ට anagthayak dennanam me mallkanthi gurwariya gedara yawanna tate nithiya pennwanna</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UCwmEpY6FNJFxdLL3RvBq0QQ</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2021-01-20T16:59:12Z</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2021-01-20T16:59:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ugyo9CvWzmj97Kub8Vd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>අයියෝ මෙවන් අපරාධයක් කරලත් මොකක්ද මේ නීතිය ලංකාවේ, ඇයි ඒ අම්මට සාධාරණයක් ඉටු නොකරන්නේ???</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UCWFVvH5umdUK4DlXJOMUXDQ</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:22:58Z</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:22:58Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ugy3Dg5jZ7RyIS5gkOJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>මේ බලුවේ  කොටලා මරන්ඩ ඕනි</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UCpGLymbRnLq6vuLs0UFQ18g</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:13:05Z</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:13:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>UgxtGWthoRsqlld-Fz14AaABAg</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>මේකිව ගුරු සේවයෙන් අඉන් කරන්න.දැන් ඉන්න බලා පරම් පරම් පාරාව ඇත්තටම බුද්දි මත්.දෙයක් කරගන්න බැරි වුනත් කොහොම හරි අපරාද සමාජෙට පෙන්නනවා.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UCqyV9ixb6hGmGK9UKnrenUg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:09:39Z</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2021-01-20T15:09:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>UgwnCtPWzZZDGfJ70yF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>දරුවොන්ගේ   ඉස්සරහ    ඔහොම  කරන  විට  එයාගේ දරුවොත් එහෙමයි   කරන්න   මෙහෙම  උන්  හිරේ  දාන්න  ඕනි  එලියට නෙවේ   පව්කාර   ගැනු  මුන් අම්මා  මොකද නැන්දම්මා  මොකද  ඒ  අම්මා හදපු  පුතා හොදයි  අම්මා  හොද   නැ  කාලකන්නි  නොදකින්</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>UC8-Mw9mC-Y6eMU74yONugJQ</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2021-01-20T14:25:08Z</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2021-01-20T14:25:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>UgwgENzsdLPw8sziuSt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>රුපියල්  5000/= ක් ද  මේ අම්මව වටින්නේ
+ඇය ගුරුවරියක් නේද මීට  වඩා දඩුවම ක් තිබුනේ  නැද්ද  ඇයට දෙන්න</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UCnsBUbaT8DvGEEaUt3wUbYA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2021-01-20T13:02:13Z</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2021-01-20T13:02:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ugz6X3oeNjCftH1uKWt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>මූ හොයන්නෙ අනුන්ගෙ රෙද්ද්වල්</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>UCqUaj_5cIpp5MTACa9tE7Sw</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2021-01-20T12:31:51Z</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2021-01-20T12:31:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>UgwzSTrgutvj-4_QZ1R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>අමන.වේසි.ඕකිට.සාපමවෙයන්</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UCp38XknXYGjds0a3FuxzJTw</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2021-01-20T10:21:10Z</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2021-01-20T10:21:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>UgxTVr4wpcaLG6HMMuZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>හැම කතාවකම දෙපැත්තක් තියනව බන්,ඔය පේන ටිකෙන් හැමදේම තීරණය කරන්න බෑ,ප්‍රශ්න ය තමන්ගේ නොවෙන තාක්කල් පිළිතුර දාර්ශනිකයි..</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UCCiH0TvSmqPpVn4dd1Z5KCw</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2021-01-20T09:03:20Z</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2021-01-20T09:06:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ugy_dTFX7joFK8RCPfh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>මේ ගුරුවරියක් ද ගුරුහොරියක්</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UCcaNzC-oC5S_s_j0j3pdlTA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2021-01-20T08:58:31Z</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2021-01-20T08:58:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>UgyRrzONmEA3lj34-TV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>කොහොමද මෙයා   දරුවන්ට උගන්නන්නෙ .සේවය   ටික  කාලයකට  හරි   අත්  හිටුවන්න   තිබ්බේ.    තව  අය  නැන්දම්මට  පහර  දෙයි.  ඇපය  රුපියල්  5000/=ක්     විතරනේ.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>UCNahxGTaVqRv2sD7BcD49TQ</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2021-01-20T08:17:48Z</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2021-01-20T08:17:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ugydl-mQcph2DbDpWaZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>හෙනම ගහපීය ඕකීට</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UCrU6vU5a39EFtEGzdDaIjLw</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2021-01-20T07:10:26Z</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2021-01-20T07:10:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>UgwAfkG_uE0yPMEj_uV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ඉස්කොලේ නම කියපන් යකො</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UCbRiH7bLuL83ueWiwRvRNiQ</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2021-01-20T06:22:41Z</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2021-01-20T06:22:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>UgxvR53jScE7aBEMTid4AaABAg</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>අනෙ බන් පොන්එකක් ඉස්සරහට වෙලා අනුන් විකුනන් කන්න එපා බන් හමකරන් කපල්ලා</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UC9Sj7A99jIE7T7ntWfAXtXQ</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2021-01-20T06:12:18Z</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2021-01-20T06:12:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>UgybT8__xwsfN59g7zh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>මෙවා taeching තහනමි කරන්න</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UCzYIksf869hhAa5klRkv2Bg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:46:05Z</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:46:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>UgwYaX2-JX-JZWR5jkl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>පැයකට දෙකකට පසුව පස්සෙන් පිටවන කෑමකට ගහගන්නවා කියන්නේ කොයි තරම් පහත්ද?</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>UChJB2Yy_z3vKkjC1XiJrDLQ</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:44:43Z</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:44:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>UgyZBWcdiz-YWPcUxTV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>මෙවටත් උන්ලයික් කරන්නෙ ලයික් එකයි අන් ලයික් එකයි වෙනස දන්නැති උන් වෙන්නැති</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UCiof-nl_neMfKrepvcMqYzQ</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:02:21Z</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2021-01-20T05:02:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ugzsic14Fl17tp-SM5p4AaABAg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>පොලිස් කාන්තාවො දාල හොද කම්මුල් පහරවල් දහයක් දොලහක් දෙන්න ඕන එතකොට තමයි ටිකක් බය වෙන්නෙ.ඔබට ස්තූතියි මල්ලි</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UCWhFXTHhuK02WyUzTlkiYHA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2021-01-20T04:46:17Z</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2021-01-20T04:46:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>UgzK-CkirAOXYZZ_XyN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ඔය වගේ දේවල් තව කොයිතරම් නම් මේ රටේ සිද්ද වෙනවා ඇත්ද. ඇය නීතියෙන් ගැලවුණත් ස්වභාව ධර්මය විසින් නිසි දඬුවම් ලබා දෙයි.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>UCeeuxwpIWUg1bjAHYkRRL-g</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:42:15Z</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:42:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ugza3C9zwGt1iTzmT2R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>මට හිතුනා නැන්දම්මා ලේලි වලියක් වෙන්නැති කියලා..ඔය විදියට අම්මාට ගහයි කියලා හිතන්න බෑ දුවෙක්.ඒත් අර වයසක් අම්මාත් පවු ඔයිට වඩා ඉවසන්න වෙනවා ගෑනු වුනහාම.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UCZRjIQhlikS7TAxjOzhEzKQ</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:34:18Z</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:34:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ugy5PW-huKMGFEEGp2p4AaABAg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ආනන්තරීය පාප කර්මයක්.මේවගෙ ගෑනුන්ට වෙනම අපායක් හදන්න ඕනෑ.යකෝ අම්මා මොකද නැන්දම්මා මොකද.මුන්ට උගන්නවුවාට වැඩිය හොදයි හරක්ට කන්න වල් කපන්න ඇරියා නම්.මේකිගෙ ගුරු වෘත්තීය අහෝසි කරන්න තියෙන්නේ....ගුරුවරුන්ටත් නින්දාවක්.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>UCmhchFrhzPye2GdmY-5Xk0g</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:19:57Z</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:19:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ugx5lJZs4wSjizfoN1t4AaABAg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>කුඩු ගන්ජා ගහන උන්ට් විතරද උසාව් වලින් අව්වු කරන්නෙ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UCXWAkCppGrrljsWlBu19OZw</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:01:25Z</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2021-01-20T03:01:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ugymaywu0ro9KIZYczV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ඔය දහදුරාවිව රටටම පෙන්නපිය.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UCfCyDicQ4C-nmSa-Wa6lENQ</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2021-01-20T02:23:25Z</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2021-01-20T02:23:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>UgzruPji72DH7tkXDv94AaABAg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>මේවගේ  අසාධාරණය  වෙන අම්මලා  ලේලිලා  ඉන්නවා  ඕනේ තරම් 
+ඉවසීම නැති කම  බලය තණ්හාව  තමයි මුල ඒ  පුතාට  පැත්තක්  ගන්න බැරි නිසා  vedio කරපු එක  හොදයි හෙෂිත  මල්ලි  ඔයා මේවා  හොයලා  නීතිය ට  පත් කිරීම ගොඩක් පින්  සමාජය  කොහොම හරි  හදන්න one</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>UC-EhAAdh-6jb4lxLNKP9XtQ</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2021-01-20T02:21:27Z</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2021-01-20T02:21:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>UgyBPclQh1515CAKgHF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">රටේ තව ඔයවගේ කී දෙනෙක් ඇද්ද නේද </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UCAhkR27xLmoEDgsjeSTr-cg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2021-01-20T01:30:40Z</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2021-01-20T01:30:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>UgwzfxwbhDu45Rm31MJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ලස්සනයි
+https://youtu.be/aZq6-D_FSrw
+අමුතුම තාලේ ඩේටා වැස්සක් උඩ ලින්ක් එකෙන් video එක බලන්න</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>UC_YEDp_hEdqGHD6cYAHX0KA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2021-01-20T00:01:09Z</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2021-01-20T00:01:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>UgwgHRzZ5__AfhxWbSR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>මේකිව පාසලෙන් අයින් කරන්න ඔනේ අනිවාර්යයෙන්ම</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>UCXL8v3Wown4MycJj-WmXIxA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2021-01-19T21:33:22Z</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2021-01-19T21:33:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ugz5Mu273JC4wZAaO8d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>අම්මට   ගහන්න   අත  උස්සන්නෙ   පව්කාර     ගෑනියෙක්   මෙහෙම   ගුරුවරියක්    කොහොමද   ලමයින්ට     උගන්වන්නෙ</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UCxhPTJ3COniui2Vx_lqjyjA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:44:25Z</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:44:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>UgzP3y8KZAQcHAtSc4Z4AaABAg</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ඔය ගැනිට ආයෙ ගුරැ වෟතිය වගේ වැදගත් රස්සාවක් දෙනවා කියන්නෙ, එයාගෙං ඉගෙන ගන්න ළමයන්ට දෙවියන්ගෙ පිහිටයි,,අනෙක ඒ රස්සාවට කරන ලොකු හැල්ලුවක්,එයා රස්සවෙං අස් කරන්නම ඕන,,</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>UC2EgW0LO7CZx_crHMRvvueA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:38:29Z</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:38:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ugy5o5yuWYmtzR08H0h4AaABAg</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>අමිිම.මොකද.නැන්දම.මොකද.ඔකි.ගුරැවරියක්නමිි.දරැවන්ට.මොනවද.උගන්නෙ.පරටිිටි.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UCq0qyb--ENntmRtDgUf25Cg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:18:24Z</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:18:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ugz1fkP3JXw-dpNBx1R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>මේවා බලන්න අපිත් පව් කරලා තියනවානෙ  අම්මාට ගහපු පර ගැණි නදහස් කරානෙ දෙයියනේ රංජන්වත් නිදහස් කරන්න එපැයි හා නැද්ද</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>UCLpS3h9ZLB56ql4vNAYWBRg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:54:53Z</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:54:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>UgxNc0xpxkawaHqzRIt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>මෙහෙ අය ගුරුවරියක් හැටියට කොහොමද පාසැල් වල ඉන්නේ ලමයි ත් මරලා දයී</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>UCPmsxx7TYA2_74FC11ewlFQ</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:48:36Z</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:48:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ugz1kIVpJPzDTwSB6PR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>අනෙ    අම්මගෙ  පැත්තද    waifge  පැත්තද  කියලා  දෙපාරක්  හිතන්න   උවමනානැ  කොමත්  video   karapu  eka  hodai   ගුරැවරියක්  ව්දියට  ලොකෙට  දුන්නු  ආසිර්වාදෙද  මෙ  මෙකිට   මොනවටද්ස්  ඇප දුන්නෙ  අවජාතක  බැල්ලිට  මෙකි  ඉස්කොලෙට  තියා  මහපාරෙවත්  යන්න  ඉඩ  තියන්න  හොදනැ    ගැනු  ඔන  තරම්  ලොකෙ  හරිම  කරදරෙ  එක  අම්මයි  ඉන්නෙ  අපට  ඇයයි  ආදරේ.............</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UCIVjfTjVNW8RfThbkWaHrlQ</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:46:32Z</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2021-01-19T17:46:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UgzhBr-eOELZqhiEG_l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ඒ ගුරුවරිය නැන්දම්මා ලගට  ගිහින් වැදලා සමාව ඉල්ලන්න ඕන. මින් ඉදිරියට නැන්දම්මා ගෙ හැම දෙයක්ම කරලා  දෙන්න ඕන .නැන්දම්මා එයාට සමාව දීලා හැමදෙයක්ම අමතක කරන්න ඕන .නැත්නම් සසර පුරාවටම ඔය දේ සිද්ධ වෙයි.මේ ජීවිතය තුල අපිට හිතට එන දේවල් කරන්න ගියොත් අපාගත වෙන්න සිදුවෙනවාමයි.අකමැත්තෙන් උනත් ඒ විදිහට  සමාව ගත්තොත්  ජීවිතයේ ඉදිරි කලයේදි. හොඳම නැන්දම්මා සහ ලේලි වෙන්නත් බැරි නෑ</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UCKYaIKYWeZGkol5sZDfeLQw</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:55:03Z</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:55:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>UgxUXrQZ3XqnCCT03OZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>මේව unlike කරන උන් ගැන වැඩි අවදානයක් දුන්නනම් ගොඩක් වැරදි කාරයො හොයාගන්න පුලුවන් වෙයි</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UCVJ8iFGCHdOBUBzCyU8NF2A</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>13</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:50:53Z</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:50:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ugxi93H39nqLwMQ-hd14AaABAg</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>අර  අම්මට   නිදහසේ  ඉන්න. මඩමකටවත්  යැවුවා නම්  තමයි  හොද.  ඔය  .වල්කාන්ති  ස්තීර  නැහැ .  මම  දන්න    සත්‍ය සිද්දීන්  කීපයක් තියෙනව.  රත්තරං නැද්ද  අම්මලටත්  මේ  විදියට   කටුක  දුක්  දීලා..පුතාවත්  මුගලන්  කරලා  පහර  දුන්  නමුත්  කලක්  ගිය  පසුව පුතාවත්  අත්හැර   වෙන...අන්තිමට අම්මා  පුතාව  බාරගත්තේ...වැඩියෙන්  දුෂ්ට   ලේලිලා  මේ  සත්‍ය  සිද්දීන්   කීපයක්    උඩ  හේසිත   ගැහැණියකගේ  අධ්‍යත්මක   දියුණුව   බලන්න.  ඔබට  මවක්  ඉන්නව  නම්.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>UC_g7ooZZ3aXGUNU3OQzmfag</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:49:19Z</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:49:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>UgxJelRrVzDoIwP2La14AaABAg</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>කොල්ලෙක් වෙලා මගේ ඇස් දෙකට කදුලු පිරවුනා බන් අනේ ඒ අම්මා .</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UCncQrIddOGuuWhp9S8L262Q</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>43</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:44:37Z</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:44:37Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ugxhzd7HngXiN4WF1xp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>මුන් ගුරැ වරැ නෙමෙි ගුරැහොරැ  කාලකන්නි ගැණු මුන්ව  මාස තුනක්වත් හිරේ තියන්න  ඔන</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UCO-qyc-TflvGm0jQHoV-NuA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:01:36Z</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2021-01-19T16:01:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>UgzGCz7I4RWCP_rgdRZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>කවුරුඋනත් අම්මා කෙනෙක් පව් ඔයාගැනීට නැති දඩුවම් දෙන්න ඕනේ</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>UCISUKrj6Sy3t412jeFNquSQ</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2021-01-19T15:59:50Z</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2021-01-19T15:59:50Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>UgxRexde2AQc_JZTcp94AaABAg</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ගොඩක් සුනිල්ලට ප්‍රශ්න තියෙනවා. උදාහරණය තමා මම. 🤣</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>UCKhyrfyZv7oTRcnj8Vp2ECg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2021-01-19T15:42:22Z</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2021-01-19T15:42:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UgxqAai-IjkvH09kZat4AaABAg</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>තම මවට නෙවෙයි. ස්වාමි පුරුෂයාගේ අම්ම.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UCQ-YKVsd0xV_mbrlOycV8Dw</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2021-01-19T14:18:36Z</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2021-01-19T14:18:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ugz5OGSIC4ps1vnIrqF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ඈබොල..මල්කාන්තියෙ..එබට
+ඉස්කෝලෙටත්..ගමටත්.යාලුවන්ටත්
+එබගෙ..පඋලෙ.අයටත්..මූනදෙන්න
+පුලුවන්ද..බං..විලිලැඡ්ඡ..බංයී..හූ..හූ</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>UCf7BcwOK5AADnYsYxMR5lNg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:48:08Z</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:48:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ugx6G4z-FGug3tCG5jl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ඇත්තටම.. මට්ටු. වෙන්ඩ. ටිකක්. රිද්දන්ඩර්‍තිබ්බෙ</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UCiw8QPTcRiAd5CUSkiVV4Ag</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:44:27Z</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:44:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ugy8jasXt5UdhSz8FwJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>පවි ඒ අම්මා මේ ගැනිට නිසි දඩුවම් දෙන්න</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>UCg7pSS2QJQtrvcv5rH6ozEw</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:13:10Z</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:13:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Ugz1kRJVazA_AkFU9ZZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Apoi දෙයියනේ මෙහෙමත් දේවල්</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>UCFwN-YjPLrgB3oUb0ulls_g</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:03:31Z</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:03:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ugx_hHXxtJ_6NFuunQN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>මෙයා ගුරුවරයෙක් මේක ද සමාජයට දෙන පණිවිඩය අම්මා මොකද නැද්ද මොකද කාලකන්නි ගැහැණු ඒගොල්ලො  බෞද්ධයෙකි යන්න බෑ හරිනම් එයාගෙ ගුරුවෘත්තිය අහිමි කරන්න ඕනි</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UCddxm29pdcTb81pq1HbsihA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:02:57Z</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2021-01-19T13:02:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>UgyWdzqLLSm2fC_Wjad4AaABAg</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>හෙශිත පුළුවන් නම් අර පොඩි එකියක් අවුරුදු 50 විතර අම්මා කෙනෙක්ට පයින්  ගහපු පරටිවත් මේහෙම දෙයක් වෙන්න සලස්වන්න.ලගදිම එකත් ඔයගේ චැනල් එකෙන් අහන්න ලැබේවා කියලා ප්‍රර්තනා කරනවා</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>UC-Pje1_08oxqNIK6txW9qQg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:58:22Z</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:58:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>UgxnHIy2iwyocj6aDKJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>මේ අම්මට ගහන එක විඩියෝ කලේ නැත්නම් කිසිකෙනෙක් දන්නෙ නැහැ කවුරු හරි මොලේ  පාවිච්චි කරල තියෙනවානම්</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>UCFuKaVSOYeE77Hakfd8Lp4w</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:47:12Z</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:47:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>UgzQh4SGgj4BUTS2TAN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>අපේ අම්මටත් මේක පෙන්නන්න ඕන. එයාට ලේලිල ඕන නෑ කියල අම්මත් තේරුම් ගන්න ඕන.
+නැන්දම්මා ලේලි වලි කොච්චර තිබ්බත් මාමා බෑන වලි දැකල තියෙනවද? නෑනේ...
+අපි කොච්චර ආදර්ශවත් ද. 
+අපෙ තාත්තා කිරි අත්තා එක්ක බීලත් තියෙනවා.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>UCwkz8-4qHdZT8aZfQjgrmbg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:44:07Z</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:44:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>UgwGEgTbM5eXs04WZcV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ගැම්ම හේශිත  ආදරේයි කොල්ලෝ ‍රෙස්පා</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>UCTfiW4-hcR89VxHmE2WCjjw</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:42:49Z</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:42:49Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Ugz85GhzdjX4MoN60BV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>මේ වගේ අය ගුරු වෘත්තියට සුදුසු නැහැ .පාසැලටත් අවනම්බුවක්.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>UCPbufUt5DFz9w6EE575_4hQ</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:12:02Z</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:12:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ugwb2hIuhob6ogjzw-d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>කොන්ද පන තියන සුපිරි චරිතයක් තමා හේෂිත අයියා  රෙස්පෙක්ට් කොල්ලා</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>UCVqkyL4-w9fyI7YxYlRSTFw</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:07:27Z</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2021-01-19T12:07:27Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>UgzyyFpT8e1If7ZoUTR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">සුනිල්   ගන්න ඕනේ අම්මගේ පැත්ත  මේ ලෝකේ උතුම්ම වස්තුව අම්මා  ඔය ගුරුවරියට අම්මෙක් තාත්තෙක් නැද්ද   කාලකන්නි බැල්ලියෝ   ඉස්කෝලේ   ළමයින්ට කොහොම   ඇද්ද  </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UCOWoNApaL5PBcEe65--_WZg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:50:25Z</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:50:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>UgyhfvaWm6jYRYHRdMh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>අන්ලයික් දාපු උන්ගෙ පන්ති බාර ටිච වෙන්න ඇති🤟🤟🤣🤣</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>UCmojjnxmYT24FpKvc5AxgAQ</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>5</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:23:41Z</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:23:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>UgzjfKylLRF598nB41h4AaABAg</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>මම නම්බරයක් දෙන්නම් එයාට ගන්න ඒයගේඅමම මැරිල මෙිර⁣ෙි</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>UCLN0HqfPcmYqH6zf76WkvSQ</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:23:03Z</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:23:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ugx3_mtdSn4qaBn8jF54AaABAg</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>මල්ලි මට ගන්න</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>UCLN0HqfPcmYqH6zf76WkvSQ</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:20:31Z</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:20:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>UgwpgAzFOUZPsw0SQ214AaABAg</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>මේකි කොහොමද ළමයින්ට උගන්නවන්නේ බැල්ලි මේකි මරලා දාන්න ඔනී අම්මෙක්ට නේද අත උස්සන්නේ මොන ලොව යන්නද</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>UC2zqHt6cIuIILa_7g4sdIdQ</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>25</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:09:46Z</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2021-01-19T11:09:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Ugxo77cf97eH9m5grAx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wife ආවේ පස්සේ....අම්මාගේ පැත්ත ගන්න එක සාධාරණ...ඕනිම කොල්ලෙක් කෙල්ලෙක් තමන්ගේ දෙමාපියන්ට සලකන්න ඕනි....wife,husban හම්බවෙන්නේ අම්මලා තාත්තලා නිසා...මුන්ට හෙනගහලා මදි....</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>UCL7ZwIB2Ie39CqVoCO_CDjQ</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>17</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:50:24Z</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:50:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ugw5yFqWIA0Au-pzOIp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ඇයත් අමිමා කෙනෙක් නැන්දම්මා තමන්ගෙත් අමිමා වගෙ</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>UCOt8sI-Hg-KyWhdWz0Hrm_g</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:38:03Z</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:38:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>UgzTqCsMR0010fGgq_R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ඔයා නම නොකිවට දැනට ගමිපලම දනංනව අැති  අනේ කොහොම වුනත් පෙර පිනක් තිබිල. අමිම බෙිරැනා  අනේ මෙයාල තව දුරටත් එකට තියන්න එපා මෙයාට දුවල නැද්ද අමිම බලා ගන්න එයාලට නිතියෙන් බාර දෙන්නකෝ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>UCC2jeumifuQwIT6eGIiW68g</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:16:53Z</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:16:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ugx1uyDRpFCdHz6RC5d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මේකට Unlike කරන පොන්නයො ටිකකුත් ඉන්නවා උනුත් ඒ වගේ එවුන් ටිකක් තමා වේස බල්ලො ටිකක්.එළ බං හේෂිත </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>UCkznPhAMyfy0xHSG8pE8lbg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:11:17Z</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:11:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>UgySxcLvbaS2ACMKzjB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>හොද wada ඕවගේ ගෙනුන්ට  netiyan  දඩුවම් diyuwtui</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>UCZfPbY-U2aXi13CLJVQT8pA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:11:00Z</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:11:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>UgyYBcI0o0GBQcJSphB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>අම්මා හෝ නැන්දම්මා යන දෙදෙනා එක සමානයි එහෙම හිතන්නේ නෑ සමහර දරුවන් ඒ වගේ ම තමයි සමහර අම්මා ලා ලේලිය තමන්ගේ දුව කියලා හිතන්නේ නෑ මේක තේරුම් ගන්න තාක් මේ prasnayata විසඳුම් නෑ monade වුනත් අම්මා කෙනෙක් ට අත උස්සනවා කියන්නේ ආනන්තරිය පාපකර්මයක්</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>UCCBnKcWFpNcIthShCsg0TsQ</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:04:02Z</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2021-01-19T10:04:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>UgzNpuQ7l_-b0uXv3Q94AaABAg</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">අඩෝ අපේ පැත්තෙ බන් ඔය  දඩාර කේස් එකක්  හේශිත අයියා ඕක </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>UCCJxrkWdJ4YoXtxmh-EXIdA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:51:51Z</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:52:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ugz0Q9dat8yXNoriN514AaABAg</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>කොන්ද   කෙලින්   තියන්    මුලින්  තිරණ   ගන්න   පුළුවන්  වෙන්න   පුළුවන්  වෙන්න   ඕනේ   ඒ  පුතාට  විටියෝ   කරන්න   කලින්</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>UCWm6bRuJk93738ylABRBlLg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:12:58Z</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:12:58Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>UgzJMRsnxerwef9EGMV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>කොයි අම්මත් එකයි එකවගේ සලකන්න ඕනැ රන්ජන් ඇමතිතුමා සිරගත කලා ඇත්ත කතාකරල පවු අම්ම පවු  ඔය ලේලි බරපතල වැඩ සහිත අවුරුදු  දහයකට සිරගත කරන්න ඕනෑ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>UCoSVtiXxGfLTlApazWYI-dQ</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:12:13Z</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:12:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>UgzJipALM4NtXLaRJKF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>අම්මා මොකෝ නැන්දම්මා මොකෝ   නැන්දම්මා ද අම්මා කෙනෙකී  .නැන්දම්මා නපුරු කම් කලත් ඉවසීමෙන් වැඩකටයුතු  කිරීමයි මනුස්සකම   එයින් පිනක් සිදුවනවා මිසක පවක් නැත .මේ ලේලිය දෙලොව ටම වැඩ කටයුතු කරගෙන ඇත</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>UCxKVWI8B8dJA1DTY0oavrGw</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:09:41Z</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2021-01-19T09:09:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>UgwiWjm7ca6GpQETJ454AaABAg</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>මෙක දැක්කම හදවතයි හිතයි හෝස් ගලා ගියේ මාගේ විතරද 🥺</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>UC_Bklb-J5HBEf9iegxF3XYw</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>10</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:59:14Z</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:59:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ugw6QqOum7jZ7YH8bAV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ඇති යන්තමට ඔබ තුමාට pin සිදු වෙනවා ඔය ගැනිට නිසි දඩුවම් දිය යුතුයි ඔබ තුමාට බුදුසරණයි</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>UCkByYcnVh3EhIsU8TOjrt8g</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:58:28Z</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:58:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ugw2dm5W-7rhSNmfZXh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>අම්ම මොකද නැන්දමිමා මොකද ඒකි ඒ අම්මට ගහන්න කිසිදෙයක් අයිතියක් නැ  ගහන්න ඇයට නිසි දඩූවන් දෙන්න</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>UCC4YtmvR5jE2HCZTGNLtdhg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:55:57Z</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:55:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>UgzpPeRV55YKZhDjflh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>හොද වැඩේ  බලු ගෑනි අම්ම  පවු ඔහොම ගෑනු මොකටද පයින් ගහලා එලියට  දාන්න ඕනැ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>UCoSVtiXxGfLTlApazWYI-dQ</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:53:42Z</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:53:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ugxnydlzs3bbDODtVsJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>ඒකි අමමා විතරයි අම්මා අනිත් අම්මා  සුනිමල්    ලෙලිලා බැල්ලියෙ</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>UCZXyyAV-gwKkCV8_vGL2sOA</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:34:42Z</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:34:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>UgyWweosnLFzanDDerJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ගොඩක්  ස්තුතියි  ඒවගෙම සතුට යි ඔකිට දඩුව ම ලැබෙනවා අනිවාර්යෙන් ඕකි අම්මා කෙනෙක් නෙමෙයි කාලකන්නි ටෙස් සී තොට හෙන ගහපන්</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>UCZXyyAV-gwKkCV8_vGL2sOA</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:29:01Z</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:29:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>UgypXqyEnRKBcozTs_R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ඕකි ලමයිට මොනවද දන්නෙ නෑ උගන්වන්නෙ. මල්ලි ඔයා මේවගේ දේවල්  ඉදිරිපත් කිරීම ගෙන සතුටු වෙනව.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>UCqAOMOcNkttD1r1Q2gY3b1Q</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>33</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:24:14Z</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:24:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Ugw86PH-XTgmklwWCY14AaABAg</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>හේසිත මල්ලි ප්ලිස් මට ඔයාට වීඩියෝ එකක් දෙන්න ඔන.අම්මට පුතා දැනට.දවස්.6...අත.කකුල  කඩලා.යකඩ.පොල්ලෙන් ගහලා .මල්ලි මට ඉමෝ නො එක ඒවන්න ප්ලිස් මට ඔයා ට මේක දෙන්න ඒ අම්මගේ ඉල්ලීමක් මන් දන් නෑ  මේවා  දාන විදිය</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>UCFSUr2OtLhqRnIGgmOBNG4w</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:11:24Z</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:11:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>UgzPd_LPwOSR1Js0JFB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>වීඩියෝ කරපු ඒක hodayi
+ඒවා බලලවත්  අනිත් අය hedeyi</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>UCHDHmc2lb2coHpdI2QxBcUg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:58:53Z</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:58:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ugxb1Au27iGeKpHEAWR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>මේ රටේ නිතිය මේ විදියට හෝ ක්‍රියා කිරීම ගැන සතුටු වෙමු.
+මේ අසික්කිත ගැහැනිය හිරේ යැවිය යුතුමය.අනික ස්වාමියා මේ නපුරු සතාව ගෙදරින් එලවා දැමිය යුතුමය.
+පාසලෙන්ද නෙරපා දමා රැකියාව අහිමි කල යුතුමය.දගගෙයි රැකියාවක් දී පඩියක් ,කෑමක් නොදිය යුතුය.
+මුන්ට කිසි ලෙසකින් ඇප නොදිය යුතුමය.එවිට තවත් අයට මෙය පාඩමකි .මෙය වීඩියෝ කිරීම ගැන දෙපැත්තක් ඇත.නමුත් මේ කුරිරු දේ එසේ වීඩියෝ නොකලානම් මේ මව සදාකආලිකව  රහසේ මූණ දෙනු ඇත.
+අනේ එම පාසලේ දරුවන්ට අබ සරණයි.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>UCBBNmeNsBbgQ52i74P0MyZg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>4</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:53:57Z</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2021-01-19T08:01:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>UgyhuFS95Oe5frEZP114AaABAg</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">විස්තරෙ හරියටම දැන ගන්න උවමනා කරලා තිබ්බෙ ,,ස්තුති මචන් උබට ,නැද්දම්මා උනත් එත් අම්මා කෙනෙක් නෙද ?ඔය ගැනිට ඔය විදිහටම හම්බෙයි එයාගෙ දරුවෙක් ලෙලි කෙනෙක් ගෙනාපු දවසට ,අනිවාර්යයෙන් එක වෙනවා </t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>UCWdVCOO2hztCCLPpFRvJO_A</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:49:14Z</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:49:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>UgydRDC8i06m4ko8EQN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>තව කොච්චර අය ඉන්නවද මේ වගේ යක්සනියෝ 
+Lankawe
+මුන් මහා හරක්</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>UCHDHmc2lb2coHpdI2QxBcUg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:47:02Z</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:47:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>UgyPnEQ8tw9G_Hh_t0l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ඔයත් අඩලද හේශි අයියෙ ඉන්නෙ</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>UCI8VhrWHk-n8UWTU0M86yvA</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:30:08Z</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:30:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>UgxFo_1aiZ-RD0SN64J4AaABAg</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>මටනන් අම්මට අතක් උස්සන්න හීනෙකින්වත් හිතෙන්නෑ අයියේඇස් දෙකට කදුලු එනව ඒක බලද්දි</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>UCI8VhrWHk-n8UWTU0M86yvA</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:28:54Z</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:28:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ugwdx_ZWiDYANIhgkxN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>කාගෙන් සමාව ලැබිලා ගෙදර ආවත් තමුන්ගෙ හර්ද ශාක්ශිය වද දෙනවා විදවනවා ජීවතේ පුරාවටම</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>UCL_5f8HpgN0bzdIfN9i-n_w</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>7</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:25:36Z</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:25:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>UgxC_95trUdcobBEkg14AaABAg</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>නියම වැඩක් අයියේ මෙහෙම තමා කරන්න ඕනේ...
+නියම දඩුවම ලැබෙන්න ඕනේ...</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>UC5hv2eByKCVG_e6Jw4OUBug</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:22:39Z</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:22:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ugwve5TXksndXKSgZCV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>ඔකිව  මරන්න ඔනේ හොද  වැඩේ  ඔයාට ගොඩාක් පින්</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>UCL0BL7jHy6zu0lTS5z7sdtQ</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:17:17Z</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:17:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>UgzudWbzD8whH3xmuxN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ගුරැවරියක් ,, ලැජ්ජයි  මොනවද දරැවන්ට උගන්නන්නෙ  නොදකින්  ඕකිව සදාා  කල්ම හිරේ දාන්න  ඕනෙ  පව්  අහිංසක  ආත්තම්ම </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>UCamtr-cNuGstjv8mFuUm2XA</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>39</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:14:26Z</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:14:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ugyj0hheBCi4Zdh343t4AaABAg</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>ඔය පට්ට වේසිට නිතියෙන් නැතිනම් කර්මය විසින් පලිසන් දෙයි 
+ඔකි ඇත්තටම ගුරුවරියක්ද වේස ගනිකාවක්ද ??</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>UCyvAcLW7wzNKq0LI2SoRSFA</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>24</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:05:33Z</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:05:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ugy-FroTNjadkm00rkh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>මේකිව නිදහස් කළේ ඇයි.අර අම්මාට සාධාරණය ඉෂ්ඨ කරන්න.පව්.හොදිටිකක් වැඩියෙන් බෙදා ගත්තට මොකද.වයසක අයට හොඳට හොදි ඕන යම් දෙයක් කන්න.මේකි ගුරුහෙරියක්.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>UCdxy46uWjc-2d8tzooGHfpQ</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>11</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:03:37Z</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2021-01-19T07:03:37Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>UgzLEhkBmR3QqBGEtF14AaABAg</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>.තරුන.වයසෙ.සමහරුන්ට.ඔවෙනි.වරදවල්.වෙනවා.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>UCfNNAiWv10NEpFcOPHgO9RA</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:57:19Z</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:57:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>UgwXen1iJUhUkkRoxSd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>අර පොඩි ළමයට ගහන එකීට දඩුවම් දෙන්න ඕන අනිවාරෙන්ම</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>UCFUIhNjaSM8uqzIdgFfT9rQ</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>5</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:16:46Z</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:16:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>UgxsPXjuF6nTB4I3Em54AaABAg</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>බලන් යන කොට ඔක්කම හුත්තියො ගැනු ජාතිය හොද කෙල්ලොත් ඉන්නව ඒ කෙල්ලො මේව ගනන් ගන්න එප හොද කෙල්ලො මේ කිව්වෙ දෙමව් පියන්ට සලකන්නෙ නැති කෙලෙ ගුනයක් නැති අම්ම කියන තැනටත් ලැජ්ජයි පර බැල්ලියො යකො මේ තරන් රත්තරන් බෞද්ධ රටකට වෙල තීන්නෙ හේශිතය බන් මෙ බෞද්ද රටට වෙල තීන්නෙ මොකද්ද බන්</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>UCBgkQI4na8AqI0GR3Mt-shQ</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:11:16Z</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2021-01-19T06:11:16Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>UgyOtebkJNgp32t0Rk54AaABAg</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>පාඩම් කරල ඉගනගත්ත උන්</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>UC7uw1vZ2ywTPxbBLHq1TTAQ</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>9</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:37:44Z</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:37:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>UgwN5AX1FCw1OGTMHY14AaABAg</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>යකෝ කෑම ප්‍රශ්නයකට මෙහෙම</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>UCUdPz-AdabOc2uAmwnLFl_g</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:32:51Z</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:32:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Ugxsk4R1jImcL59TIW14AaABAg</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>පාසල්  දරුවන්  යහමඟට ගන්නේ  ගුරුවරුන්  නේද  පාසලට  ළමුන්  atulath කළම හොඳ නරක කිය දෙන්නේ  අම්මාට  අත උස්සන්න  hodaida</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>UCt1il38n0pEGJzxWEcWSl-g</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:11:21Z</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:11:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ugy9c6jfVml7UgNVMQJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>කෙලින්ම කිව්වොත් කොන්ද පන තියන Youtuber කෙනෙක් 🤟</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>UCuD51n7HmSHzI4u1g9lAM4g</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>24</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:00:22Z</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2021-01-19T05:00:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>UgzIOwB6zRaI3GsoHsN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>හේෂිත කියන්නේ රටට ආඩම්බරයක්  Respect කොල්ලො හදවතෙන්ම  හේෂිතට ආදරෙයි උන් කෝ ?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>UCuD51n7HmSHzI4u1g9lAM4g</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:58:02Z</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:58:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>UgwsGJqHZXXbfRrC9KZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>අනේ මංදා මල්ලියෝ  අද අපේ රටේ සිරිත් විරිත් ගුණ ධර්ම හැමදේම ටික ටික විනාශ වෙලා යනවා.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>UC89U1IxpWqwW7ezdc7xLE7A</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:57:13Z</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:57:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ugw5ZIRnPdCc3XG3h4J4AaABAg</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මේ දේ හින්දා තමයි අම්මලා බෝධිය ලඟට ගිහිල්ලා පුතෙක් පැතුවේ </t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>UCs35IDw7XeC8mZ5XgymmwWA</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:50:05Z</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:50:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>UgxWAvqt96vHB_0Invd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>යකෝ කෑමකට නෙවෙයි මොන මගුලකටවත් අම්මා නෙවෙයි ආච්චි අම්මා උනත් මෙහෙම වයසක කෙනෙකුට මෙහෙම ගහනවාද...
+ලංකාවට මොකද බන් මේ වෙන්නේ....
+මොකක්ද හැදියාව
+කෝ සංස්කෘතිය 
+මොකක්ද බන් මේ......</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>UCGidY4eyfKApe0Z4pnAMPZQ</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>43</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:47:40Z</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:47:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>UgwJvPtKR9Pn0xK3tO54AaABAg</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>මෙයාව ගුරු සේවයෙන් ඉවත් කරන්න ඕන.ළමයින්ව හරි මාර්ගෙට ගන්නෙ කොහොමද මෙහෙම ගුරුවරු.ආයෙ එයාට පුලුවන්ද ලමයින්ට ඔවදන් දෙන්න බෑනෙ.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>UC4gQ5E0JRBfLf5UXhw0hNzQ</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>57</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:39:36Z</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:39:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>UgzmyGS1F_Vpzj9Acz54AaABAg</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හරි ම. පිරිමි යා. සුනිල්. Kauda හරි. වැරදි. හොයන්න. හොදම. ක්‍රමය.. හොද ඉ </t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>UCVMRBEv4upPnYz_ryFzk4UA</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:32:01Z</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:32:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>UgwGSRiMj9FOLF0-AbF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ඕකිට දීපු දඬුවම මදි තව ටිකක් දාන්න දාලා තියන්න තිබ්බෙ හිතේ  වනචර ගෑනු</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>UCPzoiMsMwwMuHRWjI74CjiQ</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>7</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:20:02Z</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:20:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>UgxbbsDsTOC6eJibvAZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ඇප 5000 ක් ඇත්ද දන්නේ ne  මේකිගේ  රස්සාව  kensal  කරන්න ඕනේ   මේකී යවන්න තිබ්බේ අවුරුදු  විස්සක්  අරින්න තිබ්බේ   අයියෝ</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>UCBcSKesseInXS3k-T36L2IA</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>8</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:14:57Z</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:14:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ugx50OOEaclwDvPnQNh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මම අකාස් නවේ ඔයා එක්ක ඉන්නවා අයියා ඔනේ දෙකට . හදිසියක් උනොත් ඔනේ වෙලාවක මම රෙඩී අයියා ᴀʟʟ ᴡᴀʏs ʀᴇᴅʏ ᴛᴏ ʏᴏᴜʀ ᴛsᴋs </t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>UCIoJI_m9nShf87x9UTAWOLw</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:13:07Z</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:13:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>UgwAbRZFriEGNRhImg14AaABAg</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>අනේ හොඳ ඇයි මේ දේ තමයි වෙන්න ඕනේ ඒ ඒ අම්මට සාධාරණයක් ඉෂ්ට කරන්න  ඕනි මේ ගෑනිව ගුරු වෘත්තියෙන් අයින් කරලා තියෙන්නේ  නැත් නම් ළමයින්ටත් ගහයි ඇත්නම් ළමයින්ටත් අබ සරණයි මූසල ගෑනි</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>UCPzoiMsMwwMuHRWjI74CjiQ</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>9</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:12:02Z</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:12:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>UgxBtYRNtCfssJewsv94AaABAg</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මම දැක්ක ගමන් ම හිතුනා නැන්දම්ම ලේලි කියල </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>UCEEZ8ggBzGBPLfgqaWPI-qA</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:10:00Z</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:10:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>UgzbB9eeP1ck-Uck_Ap4AaABAg</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>සිංහලේන් කිව්වොත් එ අම්මාගේ පුතා පොන්නයෙක් බන් මගේ අම්මාට ගැනි හ්ම්ම් හරි කිව්වොත් අයේ හිර සියක ගියත් එ අත් දෙකම කඩනවා දෙකක් නැ අයේ</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>UC6qw-Z_dJa4L_5c-BHWIE4g</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>4</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:08:48Z</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2021-01-19T04:08:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>UgxxFcN1VnVe3DWJpdV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>මේක කලින් බැලුවනෙ🤔🤔ආ... හරි  හරි හොදවැඩෙ එහෙම කරපු එක</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>UChl6sV2r1oIZqudz1psR5uQ</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:59:19Z</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:59:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>UgwJbG43LsvILNPlmol4AaABAg</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>හොදවැඩේ.. වැරදි කරලා තව නිදහසට කාරණත්. කියනවා... ලැජ්ජයි..</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>UCURxKCdL4ci8ylFEe2E204Q</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>12</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:53:36Z</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:53:36Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>UgziWeADzT4iyLjuRn54AaABAg</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>අපරාදෙ හිරේ දාන්න තිබුනෙ</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>UC1_HYWkSfkrr5-MADMXYakg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:49:38Z</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:49:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>UgxmNk29IX6piwyV21p4AaABAg</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>වේසිව දාන්න හිරේ</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>UCnJs7oaypSUwDNSApzAVCTA</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>3</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:36:15Z</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:36:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>UgwjZVSrXzJCpHd5XWF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>සර් දාන්න හිරේ</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>UCnJs7oaypSUwDNSApzAVCTA</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:36:08Z</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:36:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>UgwY1CRzqAtierU34cN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>තෝ හැමදාටම හිරේ දාන්න</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>UCnJs7oaypSUwDNSApzAVCTA</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>3</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:35:18Z</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:35:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>UgzkIQg4KUujD8rCdxB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>අනේ සක්කිලි දෙමළින්</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>UCnJs7oaypSUwDNSApzAVCTA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:35:09Z</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:35:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>UgxO-GdZpy3GSBkHNh14AaABAg</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ඔයාලා දැන් බැදලනම් ඉන්නෙ හෝ බදින්න නම් ඉන්නේ ඔයාලගේ බිරිදත් ඔයාගේ අම්මට මේම සැලකුවොත් ඔයාලගේ තීරනේ මොකක්ද</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>UCBsexfPcJcjhVuWJjynmeUA</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:21:10Z</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:21:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>UgzjfBlQFqmu0hLKlLl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>මං ඉල්ලා සිටීමේ රජයෙන් මේ තැනැත්තිය ගුරු වෘත්තියෙන් අයින් කරන්න නීතියෙන් නිදහස් උනත් කවදාවත් එයාට ස්වභාවධර්මයේ නිදහස් වෙන්න වෙන්නේ නැහැ ද්</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>UCIVZ2cFnlY44_KSInqKhwlA</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>85</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:16:59Z</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2021-01-19T03:16:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Ugzqnf2hr9SPzKQbAuF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>අයියෝ 5000 ඕකි මාස හයක්වත් හිරේට  දාන්ඩ ඕන  පන්දහක් යන්න පොඩි දඩ මුදලක්  එතකොට මේක පුංචි වැරැද්දක් ද  මේ වගේ දේවල් ආයෙ කෙරෙන්නේ ආයේ තව කෙනෙක් කරන්නේ  දඩ මුදල මුදලයි දඬුවමයි  පුංචි හින්ද මෙවන් නීතියෙ වැරදි</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>UCDoJ5kTnSKDUERE8sPp-J5Q</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:57:15Z</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:57:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>UgxaiMArt8HVENT_VbZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඕව කතා කරන්න උබලවත් ඉන්න එක හොදයි </t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>UCuFObyBdx-OVVXKT3StbYXw</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>81</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:35:51Z</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:35:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>UgwTP0ycDyv4nfLU0Jl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ලෝභකම නැත්නම් සබ්ස්ක්‍රයිබ් කරන්න යාළුවා ගොඩක් ආදරෙයි හාද ඉතින් යාලුවනේ</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>UCcNsG9okJwhAA658u0hUT9Q</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>19</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:16:09Z</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:16:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>UgzGKykl2zrEpAOwold4AaABAg</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ලෝභකම නැත්නම් සබ්ස්ක්‍රයිබ් කරන්න යාළුවා .....</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>UCcNsG9okJwhAA658u0hUT9Q</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>25</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:15:43Z</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:15:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>UgyXr38IEgOBfQj6FlR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මුන් වගේ ගුරුවරු කොහොමද ළමයින්ට උගන්වන්නේ කොහොමද. දුකයි ලංකාවේ අනාගතේ ගැන </t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>UCTIHH-dhCR-jJPbcbvfMDVQ</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>20</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:09:23Z</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:09:23Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ugwbm7iYL3prxa5pUKZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oyavt  sb කරනවා  mavat sb karanna                </t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>UCLN2J4I4KgCVamhYypAVJHw</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:04:44Z</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:04:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>UgyzKSwwVJ8oPTe5I_h4AaABAg</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oyavt  sb කරනවා  mavat sb karanna                </t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>UCLN2J4I4KgCVamhYypAVJHw</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:04:38Z</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>2021-01-19T02:04:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Ugwt1epR_iKKkUYD5Mt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unlike කරපු පරයා කවුද yakooo </t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>UChCSVfRt2VmhOxXE6I6Ujsw</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>65</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:45:03Z</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:45:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>UgzRcVD3gIsMN4Rhsft4AaABAg</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මෙවාගෙ සක්කිලින්ට  ඔහොම්ම වෙන්න ඔනි සක්කිලි geani 
+Respect  bro 
+උබ නිසා එ අම්මාට සදරනයක් උන එකට පට්ට සතුටුයි  </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>UCms9mIIKHvNpQKaIfNw62UA</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>16</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:17:35Z</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:26:50Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>UgwVE4KmOot47hDNRkF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>මෙයා  ගුරු  සේවයෙන්  අයින්  කරන්න  ඕන   මුණු  බුරෝ  තුන්දෙනා  ආච්චි අම්මට  සර්ව සදාරණයක්  ඉස්ටකරලා  තියනවා</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>UChoyLHIDCICTIbzg4tD6uEw</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>166</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:13:15Z</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:13:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ugy925-ZopBm4XPHkZZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>හොඳ වැඩේ යාලු.🤘එල එල..</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>UCxyTVmNIhJ0LUovMPgFJF-Q</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>16</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:04:33Z</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>2021-01-19T01:04:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>UgxXBoZ1qEJAp9iTHaB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>උදේ පාන්දර හේෂිත් ඇවිල්ලා..</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>UC3_FWzk8zaxawDXg07r_96A</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>32</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:53:14Z</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:53:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>UgyhnVeKHPINE7nIHQZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>අයියෙ දැන් tik tok වලට මොකක් කරන්නෙ</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>UCwL2EtkdCCgMdZcsjUD6yew</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>31</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:37:23Z</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:37:23Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>UgwGcKtYPBp0QSAHOJl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හොද වැඩේ ඕකිට ඕම වෙලා මදි </t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>UCeSol-SqBGFv0ZL3BCt-o3Q</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>55</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:32:45Z</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:32:45Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>UgyJbAiDckgoJlhlxKt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>හේශිත නිසා ආයෙත් මිනිහෙකුට සාදාරනයක් ඉශ්ට උනා කියලා හිතුන අය කෝ?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>UCZOsOVFxuRwDVwr2DMpMWbg</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>285</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:31:59Z</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:34:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2Mth_IJevas</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:30:25Z</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>UgzKfeZPLyyWUYiM3UB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>අම්මො ගම්පොල අපේ ගෙවල් නෙ..</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>UCwL2EtkdCCgMdZcsjUD6yew</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>රටම කතා කල තම මවට පිහියෙන් පහරදුන් දියනිය නීතියට කොටු වේ ! |Talk with Heshitha</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>37</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:31:52Z</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>2021-01-19T00:34:50Z</t>
         </is>
       </c>
     </row>
